--- a/WidthDepth/DepthWidth_Station01_2022-06-10_1300.xlsx
+++ b/WidthDepth/DepthWidth_Station01_2022-06-10_1300.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Metabolism/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/WidthDepth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F54363-F271-4048-8E38-83574D34CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{A2F54363-F271-4048-8E38-83574D34CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD43F111-7FD3-4334-83C2-EA83A744B1AD}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{7009FA16-2B5F-7F41-89C1-0E48DCB5D9CE}"/>
+    <workbookView xWindow="6160" yWindow="250" windowWidth="12390" windowHeight="9730" xr2:uid="{7009FA16-2B5F-7F41-89C1-0E48DCB5D9CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Station 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">Time </t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Average depth</t>
+  </si>
+  <si>
+    <t>Thalwag depth</t>
   </si>
 </sst>
 </file>
@@ -412,18 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADD6F0E-0BED-9C4E-8B33-A5D5E27F7B30}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +438,7 @@
         <v>0.54236111111111118</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -439,7 +446,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -452,8 +459,20 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -466,8 +485,24 @@
       <c r="D5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f>A5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>B5</f>
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>19.8</v>
+      </c>
+      <c r="I5">
+        <f>D7</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -481,7 +516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -495,7 +530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -509,7 +544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -523,7 +558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -536,8 +571,24 @@
       <c r="D10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f>A10</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>B10</f>
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(D10:D14)</f>
+        <v>16.8</v>
+      </c>
+      <c r="I10">
+        <f>D12</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -551,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -565,7 +616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -579,7 +630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -593,7 +644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -606,8 +657,24 @@
       <c r="D15">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>A15</f>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>B15</f>
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(D15:D19)</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I15">
+        <f>D17</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -621,7 +688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -635,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -649,7 +716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -663,7 +730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -676,8 +743,24 @@
       <c r="D20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>A20</f>
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>B20</f>
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(D20:D24)</f>
+        <v>21.4</v>
+      </c>
+      <c r="I20">
+        <f>D22</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -691,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -705,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -719,7 +802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -733,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -746,8 +829,24 @@
       <c r="D25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>A25</f>
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f>B25</f>
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(D25:D29)</f>
+        <v>3.8</v>
+      </c>
+      <c r="I25">
+        <f>D27</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -761,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -775,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -789,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -803,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>7</v>
       </c>
@@ -816,8 +915,24 @@
       <c r="D30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f>A30</f>
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <f>B30</f>
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(D30:D34)</f>
+        <v>8.4</v>
+      </c>
+      <c r="I30">
+        <f>D32</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7</v>
       </c>
@@ -831,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7</v>
       </c>
@@ -845,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7</v>
       </c>
@@ -859,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7</v>
       </c>
@@ -873,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>8</v>
       </c>
@@ -886,8 +1001,24 @@
       <c r="D35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f>A35</f>
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <f>B35</f>
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(D35:D39)</f>
+        <v>21.6</v>
+      </c>
+      <c r="I35">
+        <f>D37</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>8</v>
       </c>
@@ -901,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -915,7 +1046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8</v>
       </c>
@@ -929,7 +1060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8</v>
       </c>
@@ -943,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9</v>
       </c>
@@ -956,8 +1087,24 @@
       <c r="D40">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f>A40</f>
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <f>B40</f>
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(D40:D44)</f>
+        <v>22</v>
+      </c>
+      <c r="I40">
+        <f>D42</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9</v>
       </c>
@@ -971,7 +1118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>9</v>
       </c>
@@ -985,7 +1132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>9</v>
       </c>
@@ -999,7 +1146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>9</v>
       </c>
